--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53471.1069511199</v>
+        <v>10640750.28327284</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53471.1069511199</v>
+        <v>10640750.28327284</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036064851.218208</v>
+        <v>42825529.39713001</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8912.801422109796</v>
+        <v>995872.1906165245</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16885.80337441882</v>
+        <v>1845485.833156559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24858.80532672784</v>
+        <v>2695099.475696596</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33205.61286382254</v>
+        <v>3566107.184789785</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41447.25353223037</v>
+        <v>4416186.687014287</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49688.8942006382</v>
+        <v>5266266.189238788</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57930.53486904602</v>
+        <v>6116345.691463286</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66172.17553745385</v>
+        <v>6966425.193687784</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74448.17102679831</v>
+        <v>7818395.798942585</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82714.66348583973</v>
+        <v>8668475.301167084</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90981.15594488115</v>
+        <v>9518554.803391587</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98872.89853807239</v>
+        <v>10347706.09874741</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106869.8079999505</v>
+        <v>11197785.60097191</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114866.7174618286</v>
+        <v>12047865.10319642</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122863.6269237067</v>
+        <v>12897944.60542093</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>166</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
